--- a/lnRt_Histogram.xlsx
+++ b/lnRt_Histogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozgur\OneDrive\Masaüstü\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC39458-F528-4AD4-B6F1-65DDCC001FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51A940E-98E4-4962-A6B8-88EEEA3C7354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,7 +320,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5380" sqref="C5380"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
